--- a/需求分析/接口文档/客户/权限角色接口.xlsx
+++ b/需求分析/接口文档/客户/权限角色接口.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView xWindow="11295" windowWidth="9210" windowHeight="6555"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,9 +16,86 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21">
+  <si>
+    <t>获取模块权限</t>
+  </si>
   <si>
     <t>所有的接口，state返回1001的即为没有权限</t>
+  </si>
+  <si>
+    <t>请求地址</t>
+  </si>
+  <si>
+    <t>请求方式</t>
+  </si>
+  <si>
+    <t>参数</t>
+  </si>
+  <si>
+    <t>参数说明</t>
+  </si>
+  <si>
+    <t>返回结果</t>
+  </si>
+  <si>
+    <t>/user_listPermissionModel.action</t>
+  </si>
+  <si>
+    <t>POST</t>
+  </si>
+  <si>
+    <t>userId</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>当前登录用户I</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>d</t>
+    </r>
+  </si>
+  <si>
+    <t>state</t>
+  </si>
+  <si>
+    <t>1为成功，2为失败</t>
+  </si>
+  <si>
+    <t>token</t>
+  </si>
+  <si>
+    <t>令牌</t>
+  </si>
+  <si>
+    <t>下次请求的令牌</t>
+  </si>
+  <si>
+    <t>myTeamId</t>
+  </si>
+  <si>
+    <t>企业码</t>
+  </si>
+  <si>
+    <t>result(json数组)</t>
+  </si>
+  <si>
+    <t>permissionType</t>
+  </si>
+  <si>
+    <t>权限类型</t>
   </si>
 </sst>
 </file>
@@ -27,11 +104,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -40,9 +117,89 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -56,41 +213,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -102,96 +236,52 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -200,25 +290,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF9BBB59"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799951170384838"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -230,157 +482,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -391,6 +493,65 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -413,7 +574,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -432,217 +593,179 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="39" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="32" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="32" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="35" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="35" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="35" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -993,20 +1116,266 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="K1"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N37" sqref="N37"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="11" max="11" width="9.00833333333333" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="11:11">
-      <c r="K1" t="s">
+    <row r="1" spans="1:15">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+    </row>
+    <row r="2" spans="1:20">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="T2" s="7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="5"/>
+      <c r="H4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="L4" s="5"/>
+      <c r="M4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" s="4"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="L7" s="5"/>
+      <c r="M7" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6"/>
     </row>
   </sheetData>
+  <mergeCells count="31">
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="K3:O3"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:O4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="M5:O5"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="K6:O6"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="M7:O7"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="M8:O8"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="M9:O9"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="M10:O10"/>
+    <mergeCell ref="A1:O2"/>
+  </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>

--- a/需求分析/接口文档/客户/权限角色接口.xlsx
+++ b/需求分析/接口文档/客户/权限角色接口.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="11295" windowWidth="9210" windowHeight="6555"/>
+    <workbookView windowWidth="21390" windowHeight="9225"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -105,10 +105,10 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -120,21 +120,60 @@
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -147,36 +186,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -190,39 +208,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -236,39 +224,44 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -281,7 +274,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -290,7 +283,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF9BBB59"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -308,25 +301,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -338,151 +463,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -493,65 +480,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -574,7 +502,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -593,6 +521,65 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -601,10 +588,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -613,153 +600,144 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="39" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="46" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="32" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="32" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="35" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="35" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="35" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1119,7 +1097,7 @@
   <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="P20" sqref="P20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1162,7 +1140,7 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
-      <c r="T2" s="7" t="s">
+      <c r="T2" s="4" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1173,7 +1151,7 @@
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="F3" s="2" t="s">
@@ -1194,153 +1172,153 @@
       <c r="O3" s="2"/>
     </row>
     <row r="4" spans="1:15">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="4" t="s">
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="5"/>
-      <c r="H4" s="4" t="s">
+      <c r="G4" s="3"/>
+      <c r="H4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="4" t="s">
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="5"/>
-      <c r="M4" s="4" t="s">
+      <c r="L4" s="3"/>
+      <c r="M4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
     </row>
     <row r="5" spans="1:15">
-      <c r="A5" s="4"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="5" t="s">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5" t="s">
+      <c r="G5" s="3"/>
+      <c r="H5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5" t="s">
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5" t="s">
+      <c r="L5" s="3"/>
+      <c r="M5" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
     </row>
     <row r="6" spans="1:15">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5" t="s">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5" t="s">
+      <c r="G6" s="3"/>
+      <c r="H6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5" t="s">
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
     </row>
     <row r="7" spans="1:15">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5" t="s">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="L7" s="5"/>
-      <c r="M7" s="6" t="s">
+      <c r="L7" s="3"/>
+      <c r="M7" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="N7" s="6"/>
-      <c r="O7" s="6"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
     </row>
     <row r="8" spans="1:15">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="6"/>
-      <c r="O8" s="6"/>
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
     </row>
     <row r="9" spans="1:15">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="6"/>
-      <c r="N9" s="6"/>
-      <c r="O9" s="6"/>
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
     </row>
     <row r="10" spans="1:15">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="6"/>
-      <c r="N10" s="6"/>
-      <c r="O10" s="6"/>
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="31">

--- a/需求分析/接口文档/客户/权限角色接口.xlsx
+++ b/需求分析/接口文档/客户/权限角色接口.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21390" windowHeight="9225"/>
+    <workbookView windowWidth="15255" windowHeight="8265"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31">
   <si>
     <t>获取模块权限</t>
   </si>
@@ -97,16 +97,46 @@
   <si>
     <t>权限类型</t>
   </si>
+  <si>
+    <t>权限类型有</t>
+  </si>
+  <si>
+    <t>我的客户</t>
+  </si>
+  <si>
+    <t>业务订单</t>
+  </si>
+  <si>
+    <t>我的团队</t>
+  </si>
+  <si>
+    <t>财务订单</t>
+  </si>
+  <si>
+    <t>客户资源</t>
+  </si>
+  <si>
+    <t>通用申请</t>
+  </si>
+  <si>
+    <t>库存</t>
+  </si>
+  <si>
+    <t>组织管理</t>
+  </si>
+  <si>
+    <t>商城管理</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -131,6 +161,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -140,7 +193,76 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -155,114 +277,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -301,31 +331,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -337,139 +499,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -480,30 +510,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -523,6 +529,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -533,6 +554,24 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -557,26 +596,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -588,10 +618,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -600,137 +630,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -743,8 +773,14 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="35" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="40" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1094,10 +1130,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:R18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P20" sqref="P20"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="S15" sqref="S15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1105,7 +1141,7 @@
     <col min="11" max="11" width="9.00833333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:18">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1123,8 +1159,13 @@
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
-    </row>
-    <row r="2" spans="1:20">
+      <c r="P1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4"/>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -1140,11 +1181,11 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
-      <c r="T2" s="4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4"/>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -1170,8 +1211,11 @@
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
@@ -1199,8 +1243,11 @@
       </c>
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -1224,8 +1271,11 @@
       </c>
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -1247,8 +1297,11 @@
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -1268,60 +1321,78 @@
       </c>
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
-    </row>
-    <row r="8" spans="1:15">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
-    </row>
-    <row r="9" spans="1:15">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
-    </row>
-    <row r="10" spans="1:15">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="4"/>
+    </row>
+    <row r="8" spans="16:18">
+      <c r="P8" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5"/>
+    </row>
+    <row r="9" spans="16:18">
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="5"/>
+    </row>
+    <row r="10" spans="16:17">
+      <c r="P10" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q10" s="6"/>
+    </row>
+    <row r="11" spans="16:17">
+      <c r="P11" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q11" s="6"/>
+    </row>
+    <row r="12" spans="16:17">
+      <c r="P12" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q12" s="6"/>
+    </row>
+    <row r="13" spans="16:17">
+      <c r="P13" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q13" s="6"/>
+    </row>
+    <row r="14" spans="16:17">
+      <c r="P14" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q14" s="6"/>
+    </row>
+    <row r="15" spans="16:17">
+      <c r="P15" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q15" s="6"/>
+    </row>
+    <row r="16" spans="16:17">
+      <c r="P16" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q16" s="6"/>
+    </row>
+    <row r="17" spans="16:17">
+      <c r="P17" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q17" s="6"/>
+    </row>
+    <row r="18" spans="16:17">
+      <c r="P18" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q18" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="31">
+  <mergeCells count="32">
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="H3:J3"/>
@@ -1342,17 +1413,18 @@
     <mergeCell ref="H7:J7"/>
     <mergeCell ref="K7:L7"/>
     <mergeCell ref="M7:O7"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="M8:O8"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="M9:O9"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="M10:O10"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="P18:Q18"/>
     <mergeCell ref="A1:O2"/>
+    <mergeCell ref="P1:R7"/>
+    <mergeCell ref="P8:R9"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/需求分析/接口文档/客户/权限角色接口.xlsx
+++ b/需求分析/接口文档/客户/权限角色接口.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15255" windowHeight="8265"/>
+    <workbookView windowWidth="23715" windowHeight="10665"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="权限角色" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
@@ -16,12 +16,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31">
-  <si>
-    <t>获取模块权限</t>
-  </si>
-  <si>
-    <t>所有的接口，state返回1001的即为没有权限</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20">
+  <si>
+    <t>获取用户角色</t>
   </si>
   <si>
     <t>请求地址</t>
@@ -95,37 +92,7 @@
     <t>permissionType</t>
   </si>
   <si>
-    <t>权限类型</t>
-  </si>
-  <si>
-    <t>权限类型有</t>
-  </si>
-  <si>
-    <t>我的客户</t>
-  </si>
-  <si>
-    <t>业务订单</t>
-  </si>
-  <si>
-    <t>我的团队</t>
-  </si>
-  <si>
-    <t>财务订单</t>
-  </si>
-  <si>
-    <t>客户资源</t>
-  </si>
-  <si>
-    <t>通用申请</t>
-  </si>
-  <si>
-    <t>库存</t>
-  </si>
-  <si>
-    <t>组织管理</t>
-  </si>
-  <si>
-    <t>商城管理</t>
+    <t>角色代码</t>
   </si>
 </sst>
 </file>
@@ -161,9 +128,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -178,13 +144,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -206,14 +165,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -221,9 +172,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -285,14 +243,23 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -313,85 +280,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799951170384838"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799951170384838"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -403,103 +460,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -514,16 +481,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -539,21 +506,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -596,6 +548,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -618,10 +585,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -630,141 +597,141 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="46" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="39" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="32" applyFont="1" applyFill="1" applyAlignment="1">
@@ -772,15 +739,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="35" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="40" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1130,18 +1088,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:R18"/>
+  <dimension ref="A1:O7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="S15" sqref="S15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
   <cols>
     <col min="11" max="11" width="9.00833333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1159,13 +1117,8 @@
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
-      <c r="P1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="4"/>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:15">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -1181,127 +1134,112 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="4"/>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:15">
       <c r="A3" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>3</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>4</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="4"/>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:15">
       <c r="A4" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>9</v>
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
       <c r="K4" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L4" s="3"/>
       <c r="M4" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="4"/>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:15">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
       <c r="K5" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L5" s="3"/>
       <c r="M5" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="4"/>
-      <c r="R5" s="4"/>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:15">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
       <c r="K6" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="4"/>
-      <c r="R6" s="4"/>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:15">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -1313,86 +1251,17 @@
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
       <c r="K7" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L7" s="3"/>
       <c r="M7" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="4"/>
-      <c r="R7" s="4"/>
-    </row>
-    <row r="8" spans="16:18">
-      <c r="P8" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q8" s="5"/>
-      <c r="R8" s="5"/>
-    </row>
-    <row r="9" spans="16:18">
-      <c r="P9" s="5"/>
-      <c r="Q9" s="5"/>
-      <c r="R9" s="5"/>
-    </row>
-    <row r="10" spans="16:17">
-      <c r="P10" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q10" s="6"/>
-    </row>
-    <row r="11" spans="16:17">
-      <c r="P11" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q11" s="6"/>
-    </row>
-    <row r="12" spans="16:17">
-      <c r="P12" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q12" s="6"/>
-    </row>
-    <row r="13" spans="16:17">
-      <c r="P13" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q13" s="6"/>
-    </row>
-    <row r="14" spans="16:17">
-      <c r="P14" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q14" s="6"/>
-    </row>
-    <row r="15" spans="16:17">
-      <c r="P15" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q15" s="6"/>
-    </row>
-    <row r="16" spans="16:17">
-      <c r="P16" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q16" s="6"/>
-    </row>
-    <row r="17" spans="16:17">
-      <c r="P17" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q17" s="6"/>
-    </row>
-    <row r="18" spans="16:17">
-      <c r="P18" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q18" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="32">
+  <mergeCells count="21">
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="H3:J3"/>
@@ -1413,18 +1282,7 @@
     <mergeCell ref="H7:J7"/>
     <mergeCell ref="K7:L7"/>
     <mergeCell ref="M7:O7"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="P18:Q18"/>
     <mergeCell ref="A1:O2"/>
-    <mergeCell ref="P1:R7"/>
-    <mergeCell ref="P8:R9"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/需求分析/接口文档/客户/权限角色接口.xlsx
+++ b/需求分析/接口文档/客户/权限角色接口.xlsx
@@ -4,23 +4,24 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23715" windowHeight="10665"/>
+    <workbookView windowWidth="20955" windowHeight="10365"/>
   </bookViews>
   <sheets>
     <sheet name="权限角色" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41">
   <si>
     <t>获取用户角色</t>
   </si>
   <si>
+    <t>permissionType(角色代码)</t>
+  </si>
+  <si>
     <t>请求地址</t>
   </si>
   <si>
@@ -34,6 +35,12 @@
   </si>
   <si>
     <t>返回结果</t>
+  </si>
+  <si>
+    <t>业务员</t>
+  </si>
+  <si>
+    <t>salesman</t>
   </si>
   <si>
     <t>/user_listPermissionModel.action</t>
@@ -71,6 +78,12 @@
     <t>1为成功，2为失败</t>
   </si>
   <si>
+    <t xml:space="preserve">业务主管  </t>
+  </si>
+  <si>
+    <t>salesman_manager</t>
+  </si>
+  <si>
     <t>token</t>
   </si>
   <si>
@@ -80,6 +93,12 @@
     <t>下次请求的令牌</t>
   </si>
   <si>
+    <t xml:space="preserve">财务员 </t>
+  </si>
+  <si>
+    <t>finance</t>
+  </si>
+  <si>
     <t>myTeamId</t>
   </si>
   <si>
@@ -89,10 +108,52 @@
     <t>result(json数组)</t>
   </si>
   <si>
+    <t xml:space="preserve">财务主管 </t>
+  </si>
+  <si>
+    <t>finance_manager</t>
+  </si>
+  <si>
     <t>permissionType</t>
   </si>
   <si>
     <t>角色代码</t>
+  </si>
+  <si>
+    <t xml:space="preserve">后勤人员 </t>
+  </si>
+  <si>
+    <t>logistics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">后勤主管 </t>
+  </si>
+  <si>
+    <t>logistics_manager</t>
+  </si>
+  <si>
+    <t xml:space="preserve">跟单员 </t>
+  </si>
+  <si>
+    <t>follower</t>
+  </si>
+  <si>
+    <t>系统预设账号</t>
+  </si>
+  <si>
+    <t>角色</t>
+  </si>
+  <si>
+    <t>账号(手机号)</t>
+  </si>
+  <si>
+    <t>密码</t>
+  </si>
+  <si>
+    <t>超级管理员</t>
+  </si>
+  <si>
+    <t>dggadmin</t>
   </si>
 </sst>
 </file>
@@ -128,8 +189,61 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -144,60 +258,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -218,11 +279,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -234,8 +310,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -244,22 +321,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -298,175 +359,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -480,17 +541,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -528,13 +589,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -544,6 +609,17 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -562,21 +638,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -585,10 +646,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -597,7 +658,7 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -606,128 +667,128 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -739,6 +800,30 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="35" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="46" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="46" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="40" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="40" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="40" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1088,18 +1173,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O7"/>
+  <dimension ref="A1:S26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O17" sqref="O17"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="11" max="11" width="9.00833333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:19">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1117,8 +1202,14 @@
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q1" s="8"/>
+      <c r="R1" s="8"/>
+      <c r="S1" s="8"/>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -1134,112 +1225,148 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2" s="8"/>
+      <c r="Q2" s="8"/>
+      <c r="R2" s="8"/>
+      <c r="S2" s="8"/>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q3" s="9"/>
+      <c r="R3" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="S3" s="11"/>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="3" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
       <c r="K4" s="3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="L4" s="3"/>
       <c r="M4" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q4" s="9"/>
+      <c r="R4" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="S4" s="11"/>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
       <c r="K5" s="3" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="L5" s="3"/>
       <c r="M5" s="3" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q5" s="9"/>
+      <c r="R5" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="S5" s="11"/>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="3" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
       <c r="K6" s="3" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q6" s="9"/>
+      <c r="R6" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="S6" s="11"/>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -1251,75 +1378,270 @@
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
       <c r="K7" s="3" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="L7" s="3"/>
       <c r="M7" s="3" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
+      <c r="P7" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q7" s="9"/>
+      <c r="R7" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="S7" s="11"/>
+    </row>
+    <row r="8" spans="16:19">
+      <c r="P8" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q8" s="9"/>
+      <c r="R8" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="S8" s="11"/>
+    </row>
+    <row r="9" spans="16:19">
+      <c r="P9" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q9" s="9"/>
+      <c r="R9" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="S9" s="11"/>
+    </row>
+    <row r="10" spans="16:17">
+      <c r="P10" s="10"/>
+      <c r="Q10" s="10"/>
+    </row>
+    <row r="17" spans="1:15">
+      <c r="A17" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
+    </row>
+    <row r="18" spans="1:15">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
+    </row>
+    <row r="19" spans="1:15">
+      <c r="A19" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F19" s="4"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="6"/>
+      <c r="O19" s="6"/>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" s="7"/>
+      <c r="C20" s="4">
+        <v>13688888888</v>
+      </c>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F20" s="4"/>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" s="7"/>
+      <c r="C21" s="4">
+        <v>13311112222</v>
+      </c>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F21" s="4"/>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B22" s="7"/>
+      <c r="C22" s="4">
+        <v>13311113333</v>
+      </c>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F22" s="4"/>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23" s="7"/>
+      <c r="C23" s="4">
+        <v>13511113333</v>
+      </c>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F23" s="4"/>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" s="7"/>
+      <c r="C24" s="4">
+        <v>13511112222</v>
+      </c>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F24" s="4"/>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" s="7"/>
+      <c r="C25" s="4">
+        <v>13211112222</v>
+      </c>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F25" s="4"/>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26" s="7"/>
+      <c r="C26" s="4">
+        <v>13211113333</v>
+      </c>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F26" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="21">
+  <mergeCells count="61">
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="H3:J3"/>
     <mergeCell ref="K3:O3"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="R3:S3"/>
     <mergeCell ref="A4:D4"/>
     <mergeCell ref="F4:G4"/>
     <mergeCell ref="H4:J4"/>
     <mergeCell ref="K4:L4"/>
     <mergeCell ref="M4:O4"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="R4:S4"/>
     <mergeCell ref="F5:G5"/>
     <mergeCell ref="H5:J5"/>
     <mergeCell ref="K5:L5"/>
     <mergeCell ref="M5:O5"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="R5:S5"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="H6:J6"/>
     <mergeCell ref="K6:O6"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="R6:S6"/>
     <mergeCell ref="F7:G7"/>
     <mergeCell ref="H7:J7"/>
     <mergeCell ref="K7:L7"/>
     <mergeCell ref="M7:O7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="R9:S9"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:F26"/>
     <mergeCell ref="A1:O2"/>
+    <mergeCell ref="P1:S2"/>
+    <mergeCell ref="A17:F18"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
 </file>
--- a/需求分析/接口文档/客户/权限角色接口.xlsx
+++ b/需求分析/接口文档/客户/权限角色接口.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20955" windowHeight="10365"/>
+    <workbookView windowWidth="22395" windowHeight="9360"/>
   </bookViews>
   <sheets>
     <sheet name="权限角色" sheetId="1" r:id="rId1"/>
@@ -162,8 +162,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -189,53 +189,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -257,8 +212,70 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -279,16 +296,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -296,31 +313,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -371,163 +371,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -538,6 +538,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -556,26 +571,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -584,7 +584,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -607,8 +622,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -623,21 +638,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -646,10 +646,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -658,133 +658,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1176,7 +1176,7 @@
   <dimension ref="A1:S26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/需求分析/接口文档/客户/权限角色接口.xlsx
+++ b/需求分析/接口文档/客户/权限角色接口.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22395" windowHeight="9360"/>
+    <workbookView windowWidth="23025" windowHeight="9360"/>
   </bookViews>
   <sheets>
     <sheet name="权限角色" sheetId="1" r:id="rId1"/>
@@ -162,8 +162,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -196,6 +196,59 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -229,6 +282,14 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -236,91 +297,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -371,49 +371,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -425,109 +515,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -538,6 +538,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -552,6 +567,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -589,36 +619,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -646,145 +646,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1176,7 +1176,7 @@
   <dimension ref="A1:S26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="F8" sqref="E8:F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/需求分析/接口文档/客户/权限角色接口.xlsx
+++ b/需求分析/接口文档/客户/权限角色接口.xlsx
@@ -196,13 +196,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -210,24 +227,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -236,22 +245,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -265,27 +259,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -298,6 +305,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -306,21 +320,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -371,6 +371,54 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -383,13 +431,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -401,19 +503,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -425,109 +527,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -538,6 +538,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -556,6 +580,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -567,21 +611,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -604,37 +633,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -646,10 +646,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -658,133 +658,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1176,7 +1176,7 @@
   <dimension ref="A1:S26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="E8:F8"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/需求分析/接口文档/客户/权限角色接口.xlsx
+++ b/需求分析/接口文档/客户/权限角色接口.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23025" windowHeight="9360"/>
+    <workbookView windowWidth="26400" windowHeight="9045"/>
   </bookViews>
   <sheets>
     <sheet name="权限角色" sheetId="1" r:id="rId1"/>
@@ -52,24 +52,7 @@
     <t>userId</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>当前登录用户I</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>d</t>
-    </r>
+    <t>当前登录用户Id</t>
   </si>
   <si>
     <t>state</t>
@@ -163,8 +146,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -190,12 +173,41 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -212,24 +224,52 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -245,91 +285,34 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="34">
@@ -371,19 +354,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -395,139 +510,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -538,6 +521,50 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -559,8 +586,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -580,41 +607,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -629,15 +621,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -646,10 +629,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -658,103 +641,103 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -763,32 +746,32 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -799,6 +782,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="35" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="35" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="46" applyAlignment="1">
@@ -1176,7 +1162,7 @@
   <dimension ref="A1:S26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="E19" sqref="E19:F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1202,12 +1188,12 @@
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
-      <c r="P1" s="8" t="s">
+      <c r="P1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="Q1" s="8"/>
-      <c r="R1" s="8"/>
-      <c r="S1" s="8"/>
+      <c r="Q1" s="9"/>
+      <c r="R1" s="9"/>
+      <c r="S1" s="9"/>
     </row>
     <row r="2" spans="1:19">
       <c r="A2" s="1"/>
@@ -1225,10 +1211,10 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="8"/>
-      <c r="R2" s="8"/>
-      <c r="S2" s="8"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="9"/>
+      <c r="R2" s="9"/>
+      <c r="S2" s="9"/>
     </row>
     <row r="3" spans="1:19">
       <c r="A3" s="2" t="s">
@@ -1256,14 +1242,14 @@
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
-      <c r="P3" s="9" t="s">
+      <c r="P3" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="Q3" s="9"/>
-      <c r="R3" s="11" t="s">
+      <c r="Q3" s="10"/>
+      <c r="R3" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="S3" s="11"/>
+      <c r="S3" s="12"/>
     </row>
     <row r="4" spans="1:19">
       <c r="A4" s="3" t="s">
@@ -1279,7 +1265,7 @@
         <v>11</v>
       </c>
       <c r="G4" s="3"/>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="4" t="s">
         <v>12</v>
       </c>
       <c r="I4" s="3"/>
@@ -1293,14 +1279,14 @@
       </c>
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
-      <c r="P4" s="9" t="s">
+      <c r="P4" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="Q4" s="9"/>
-      <c r="R4" s="11" t="s">
+      <c r="Q4" s="10"/>
+      <c r="R4" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="S4" s="11"/>
+      <c r="S4" s="12"/>
     </row>
     <row r="5" spans="1:19">
       <c r="A5" s="3"/>
@@ -1326,14 +1312,14 @@
       </c>
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
-      <c r="P5" s="9" t="s">
+      <c r="P5" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="Q5" s="9"/>
-      <c r="R5" s="11" t="s">
+      <c r="Q5" s="10"/>
+      <c r="R5" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="S5" s="11"/>
+      <c r="S5" s="12"/>
     </row>
     <row r="6" spans="1:19">
       <c r="A6" s="3"/>
@@ -1357,14 +1343,14 @@
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
-      <c r="P6" s="9" t="s">
+      <c r="P6" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="Q6" s="9"/>
-      <c r="R6" s="11" t="s">
+      <c r="Q6" s="10"/>
+      <c r="R6" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="S6" s="11"/>
+      <c r="S6" s="12"/>
     </row>
     <row r="7" spans="1:19">
       <c r="A7" s="3"/>
@@ -1386,195 +1372,195 @@
       </c>
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
-      <c r="P7" s="9" t="s">
+      <c r="P7" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="Q7" s="9"/>
-      <c r="R7" s="11" t="s">
+      <c r="Q7" s="10"/>
+      <c r="R7" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="S7" s="11"/>
+      <c r="S7" s="12"/>
     </row>
     <row r="8" spans="16:19">
-      <c r="P8" s="9" t="s">
+      <c r="P8" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="Q8" s="9"/>
-      <c r="R8" s="11" t="s">
+      <c r="Q8" s="10"/>
+      <c r="R8" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="S8" s="11"/>
+      <c r="S8" s="12"/>
     </row>
     <row r="9" spans="16:19">
-      <c r="P9" s="9" t="s">
+      <c r="P9" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="Q9" s="9"/>
-      <c r="R9" s="11" t="s">
+      <c r="Q9" s="10"/>
+      <c r="R9" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="S9" s="11"/>
+      <c r="S9" s="12"/>
     </row>
     <row r="10" spans="16:17">
-      <c r="P10" s="10"/>
-      <c r="Q10" s="10"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11"/>
     </row>
     <row r="17" spans="1:15">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="5"/>
-      <c r="N17" s="5"/>
-      <c r="O17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="6"/>
     </row>
     <row r="18" spans="1:15">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
-      <c r="M18" s="5"/>
-      <c r="N18" s="5"/>
-      <c r="O18" s="5"/>
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="6"/>
     </row>
     <row r="19" spans="1:15">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4" t="s">
+      <c r="B19" s="5"/>
+      <c r="C19" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4" t="s">
+      <c r="D19" s="5"/>
+      <c r="E19" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="F19" s="4"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
-      <c r="L19" s="6"/>
-      <c r="M19" s="6"/>
-      <c r="N19" s="6"/>
-      <c r="O19" s="6"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="7"/>
+      <c r="N19" s="7"/>
+      <c r="O19" s="7"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="7" t="s">
+      <c r="A20" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B20" s="7"/>
-      <c r="C20" s="4">
+      <c r="B20" s="8"/>
+      <c r="C20" s="5">
         <v>13688888888</v>
       </c>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4" t="s">
+      <c r="D20" s="5"/>
+      <c r="E20" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="F20" s="4"/>
+      <c r="F20" s="5"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="7" t="s">
+      <c r="A21" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B21" s="7"/>
-      <c r="C21" s="4">
+      <c r="B21" s="8"/>
+      <c r="C21" s="5">
         <v>13311112222</v>
       </c>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4" t="s">
+      <c r="D21" s="5"/>
+      <c r="E21" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="F21" s="4"/>
+      <c r="F21" s="5"/>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="7" t="s">
+      <c r="A22" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B22" s="7"/>
-      <c r="C22" s="4">
+      <c r="B22" s="8"/>
+      <c r="C22" s="5">
         <v>13311113333</v>
       </c>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4" t="s">
+      <c r="D22" s="5"/>
+      <c r="E22" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="F22" s="4"/>
+      <c r="F22" s="5"/>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="7" t="s">
+      <c r="A23" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B23" s="7"/>
-      <c r="C23" s="4">
+      <c r="B23" s="8"/>
+      <c r="C23" s="5">
         <v>13511113333</v>
       </c>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4" t="s">
+      <c r="D23" s="5"/>
+      <c r="E23" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="F23" s="4"/>
+      <c r="F23" s="5"/>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="7" t="s">
+      <c r="A24" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B24" s="7"/>
-      <c r="C24" s="4">
+      <c r="B24" s="8"/>
+      <c r="C24" s="5">
         <v>13511112222</v>
       </c>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4" t="s">
+      <c r="D24" s="5"/>
+      <c r="E24" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="F24" s="4"/>
+      <c r="F24" s="5"/>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="7" t="s">
+      <c r="A25" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B25" s="7"/>
-      <c r="C25" s="4">
+      <c r="B25" s="8"/>
+      <c r="C25" s="5">
         <v>13211112222</v>
       </c>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4" t="s">
+      <c r="D25" s="5"/>
+      <c r="E25" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="F25" s="4"/>
+      <c r="F25" s="5"/>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="7" t="s">
+      <c r="A26" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B26" s="7"/>
-      <c r="C26" s="4">
+      <c r="B26" s="8"/>
+      <c r="C26" s="5">
         <v>13211113333</v>
       </c>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4" t="s">
+      <c r="D26" s="5"/>
+      <c r="E26" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="F26" s="4"/>
+      <c r="F26" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="61">

--- a/需求分析/接口文档/客户/权限角色接口.xlsx
+++ b/需求分析/接口文档/客户/权限角色接口.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26400" windowHeight="9045"/>
+    <workbookView windowWidth="22515" windowHeight="9705"/>
   </bookViews>
   <sheets>
     <sheet name="权限角色" sheetId="1" r:id="rId1"/>
@@ -146,8 +146,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -176,6 +176,82 @@
       <color rgb="FF000000"/>
       <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -195,19 +271,35 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -216,100 +308,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -354,163 +354,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -524,13 +524,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -559,39 +572,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -603,6 +583,26 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -629,10 +629,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -641,133 +641,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1162,7 +1162,7 @@
   <dimension ref="A1:S26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19:F19"/>
+      <selection activeCell="Q15" sqref="Q15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/需求分析/接口文档/客户/权限角色接口.xlsx
+++ b/需求分析/接口文档/客户/权限角色接口.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22515" windowHeight="9705"/>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="权限角色" sheetId="1" r:id="rId1"/>
@@ -178,46 +178,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -232,14 +194,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -248,7 +202,74 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -270,46 +291,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -354,25 +354,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -384,133 +510,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -524,35 +524,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -572,17 +563,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -598,11 +592,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -629,10 +629,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -641,133 +641,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1162,7 +1162,7 @@
   <dimension ref="A1:S26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q15" sqref="Q15"/>
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/需求分析/接口文档/客户/权限角色接口.xlsx
+++ b/需求分析/接口文档/客户/权限角色接口.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView windowWidth="22275" windowHeight="9135"/>
   </bookViews>
   <sheets>
     <sheet name="权限角色" sheetId="1" r:id="rId1"/>
@@ -144,10 +144,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -179,7 +179,69 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -194,6 +256,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -201,115 +271,45 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -354,25 +354,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -390,13 +492,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -408,109 +510,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -524,11 +524,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -544,6 +574,26 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -566,58 +616,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -629,10 +629,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -641,133 +641,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1162,7 +1162,7 @@
   <dimension ref="A1:S26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+      <selection activeCell="R23" sqref="R23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/需求分析/接口文档/客户/权限角色接口.xlsx
+++ b/需求分析/接口文档/客户/权限角色接口.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="26400" windowHeight="9045"/>
+    <workbookView windowWidth="22290" windowHeight="9135"/>
   </bookViews>
   <sheets>
     <sheet name="权限角色" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56">
   <si>
     <t>获取用户角色</t>
   </si>
@@ -139,66 +139,55 @@
     <t>dggadmin</t>
   </si>
   <si>
+    <t>张三</t>
+  </si>
+  <si>
+    <t>管理员</t>
+  </si>
+  <si>
+    <t>李四</t>
+  </si>
+  <si>
+    <t>跟单员</t>
+  </si>
+  <si>
     <t>李思思</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>业务主管</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>业务员</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>跟单员</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>赵柳燕</t>
+  </si>
+  <si>
+    <t>财务人员</t>
+  </si>
+  <si>
+    <t>赵六</t>
+  </si>
+  <si>
+    <t>财务主管</t>
+  </si>
+  <si>
+    <t>王五</t>
+  </si>
+  <si>
+    <t>后勤人员</t>
   </si>
   <si>
     <t>王舞欣</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>后勤主管</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>后勤人员</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>王五</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>赵六</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>财务主管</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>财务人员</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>赵柳燕</t>
-  </si>
-  <si>
-    <t>李四</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>张三</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>管理员</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">大悠然 </t>
     </r>
     <r>
@@ -206,20 +195,23 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="9">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -250,19 +242,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -271,19 +250,147 @@
       <sz val="14"/>
       <color rgb="FF5C5C5C"/>
       <name val="黑体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -304,7 +411,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79992065187536243"/>
+        <fgColor theme="4" tint="0.799920651875362"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -322,12 +429,168 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79995117038483843"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799951170384838"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -335,15 +598,221 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -352,18 +821,48 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="39" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="32" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="35" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="35" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="46" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -372,55 +871,79 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="46" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="40" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="40" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="3" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="4" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="5" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="5" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="4" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="40" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="4" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="20% - 强调文字颜色 1" xfId="2" builtinId="30"/>
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="强调文字颜色 3" xfId="3" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="4" builtinId="41"/>
-    <cellStyle name="强调文字颜色 6" xfId="5" builtinId="49"/>
-    <cellStyle name="适中" xfId="1" builtinId="28"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -431,7 +954,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>12</xdr:col>
@@ -453,7 +976,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:blip r:embed="rId1" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -754,16 +1277,16 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:S29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -772,401 +1295,401 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="9" t="s">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="Q1" s="9"/>
-      <c r="R1" s="9"/>
-      <c r="S1" s="9"/>
+      <c r="Q1" s="11"/>
+      <c r="R1" s="11"/>
+      <c r="S1" s="11"/>
     </row>
     <row r="2" spans="1:19">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="9"/>
-      <c r="Q2" s="9"/>
-      <c r="R2" s="9"/>
-      <c r="S2" s="9"/>
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="11"/>
+      <c r="Q2" s="11"/>
+      <c r="R2" s="11"/>
+      <c r="S2" s="11"/>
     </row>
     <row r="3" spans="1:19">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="1" t="s">
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="17" t="s">
+      <c r="F3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17" t="s">
+      <c r="G3" s="2"/>
+      <c r="H3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17" t="s">
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="L3" s="17"/>
-      <c r="M3" s="17"/>
-      <c r="N3" s="17"/>
-      <c r="O3" s="17"/>
-      <c r="P3" s="14" t="s">
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="Q3" s="14"/>
-      <c r="R3" s="13" t="s">
+      <c r="Q3" s="12"/>
+      <c r="R3" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="S3" s="13"/>
+      <c r="S3" s="14"/>
     </row>
     <row r="4" spans="1:19">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="2" t="s">
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="15" t="s">
+      <c r="F4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="15"/>
-      <c r="H4" s="16" t="s">
+      <c r="G4" s="3"/>
+      <c r="H4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15" t="s">
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="L4" s="15"/>
-      <c r="M4" s="15" t="s">
+      <c r="L4" s="3"/>
+      <c r="M4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="N4" s="15"/>
-      <c r="O4" s="15"/>
-      <c r="P4" s="14" t="s">
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="Q4" s="14"/>
-      <c r="R4" s="13" t="s">
+      <c r="Q4" s="12"/>
+      <c r="R4" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="S4" s="13"/>
+      <c r="S4" s="14"/>
     </row>
     <row r="5" spans="1:19">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="15" t="s">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15" t="s">
+      <c r="G5" s="3"/>
+      <c r="H5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="15" t="s">
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="L5" s="15"/>
-      <c r="M5" s="15" t="s">
+      <c r="L5" s="3"/>
+      <c r="M5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="N5" s="15"/>
-      <c r="O5" s="15"/>
-      <c r="P5" s="14" t="s">
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="Q5" s="14"/>
-      <c r="R5" s="13" t="s">
+      <c r="Q5" s="12"/>
+      <c r="R5" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="S5" s="13"/>
+      <c r="S5" s="14"/>
     </row>
     <row r="6" spans="1:19">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="15" t="s">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15" t="s">
+      <c r="G6" s="3"/>
+      <c r="H6" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="15" t="s">
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L6" s="15"/>
-      <c r="M6" s="15"/>
-      <c r="N6" s="15"/>
-      <c r="O6" s="15"/>
-      <c r="P6" s="14" t="s">
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="Q6" s="14"/>
-      <c r="R6" s="13" t="s">
+      <c r="Q6" s="12"/>
+      <c r="R6" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="S6" s="13"/>
+      <c r="S6" s="14"/>
     </row>
     <row r="7" spans="1:19">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="15"/>
-      <c r="K7" s="15" t="s">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="L7" s="15"/>
-      <c r="M7" s="15" t="s">
+      <c r="L7" s="3"/>
+      <c r="M7" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="N7" s="15"/>
-      <c r="O7" s="15"/>
-      <c r="P7" s="14" t="s">
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="Q7" s="14"/>
-      <c r="R7" s="13" t="s">
+      <c r="Q7" s="12"/>
+      <c r="R7" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="S7" s="13"/>
-    </row>
-    <row r="8" spans="1:19">
-      <c r="P8" s="14" t="s">
+      <c r="S7" s="14"/>
+    </row>
+    <row r="8" spans="16:19">
+      <c r="P8" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="Q8" s="14"/>
-      <c r="R8" s="13" t="s">
+      <c r="Q8" s="12"/>
+      <c r="R8" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="S8" s="13"/>
-    </row>
-    <row r="9" spans="1:19">
-      <c r="P9" s="14" t="s">
+      <c r="S8" s="14"/>
+    </row>
+    <row r="9" spans="16:19">
+      <c r="P9" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="Q9" s="14"/>
-      <c r="R9" s="13" t="s">
+      <c r="Q9" s="12"/>
+      <c r="R9" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="S9" s="13"/>
-    </row>
-    <row r="10" spans="1:19">
-      <c r="P10" s="5"/>
-      <c r="Q10" s="5"/>
+      <c r="S9" s="14"/>
+    </row>
+    <row r="10" spans="16:17">
+      <c r="P10" s="13"/>
+      <c r="Q10" s="13"/>
     </row>
     <row r="17" spans="1:15">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
-      <c r="N17" s="3"/>
-      <c r="O17" s="3"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="6"/>
     </row>
     <row r="18" spans="1:15">
-      <c r="A18" s="10"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
-      <c r="N18" s="3"/>
-      <c r="O18" s="3"/>
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="6"/>
     </row>
     <row r="19" spans="1:15">
-      <c r="A19" s="10" t="s">
+      <c r="A19" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="10"/>
-      <c r="C19" s="10" t="s">
+      <c r="B19" s="5"/>
+      <c r="C19" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10" t="s">
+      <c r="D19" s="5"/>
+      <c r="E19" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="F19" s="10"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
-      <c r="M19" s="4"/>
-      <c r="N19" s="4"/>
-      <c r="O19" s="4"/>
-    </row>
-    <row r="20" spans="1:15">
-      <c r="A20" s="12" t="s">
+      <c r="F19" s="5"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="7"/>
+      <c r="N19" s="7"/>
+      <c r="O19" s="7"/>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B20" s="12"/>
-      <c r="C20" s="10">
+      <c r="B20" s="8"/>
+      <c r="C20" s="5">
         <v>13688888888</v>
       </c>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10" t="s">
+      <c r="D20" s="5"/>
+      <c r="E20" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="F20" s="10"/>
-      <c r="G20" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="H20" s="7" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
-      <c r="A21" s="12" t="s">
+      <c r="F20" s="5"/>
+      <c r="G20" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="H20" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B21" s="12"/>
-      <c r="C21" s="10">
+      <c r="B21" s="8"/>
+      <c r="C21" s="5">
         <v>13311112222</v>
       </c>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10" t="s">
+      <c r="D21" s="5"/>
+      <c r="E21" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="F21" s="10"/>
-      <c r="G21" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="H21" s="7" t="s">
+      <c r="F21" s="5"/>
+      <c r="G21" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="I21" s="7" t="s">
+      <c r="H21" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="I21" s="9" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="1:15">
-      <c r="A22" s="12" t="s">
+    <row r="22" spans="1:10">
+      <c r="A22" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B22" s="12"/>
-      <c r="C22" s="10">
+      <c r="B22" s="8"/>
+      <c r="C22" s="5">
         <v>13311113333</v>
       </c>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10" t="s">
+      <c r="D22" s="5"/>
+      <c r="E22" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="F22" s="10"/>
+      <c r="F22" s="5"/>
       <c r="G22" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="H22" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="I22" t="s">
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="J22" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="18.75">
-      <c r="A23" s="12" t="s">
+    <row r="23" ht="18.75" spans="1:8">
+      <c r="A23" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B23" s="12"/>
-      <c r="C23" s="10">
+      <c r="B23" s="8"/>
+      <c r="C23" s="5">
         <v>13511113333</v>
       </c>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10" t="s">
+      <c r="D23" s="5"/>
+      <c r="E23" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="F23" s="10"/>
-      <c r="G23" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="H23" s="7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
-      <c r="A24" s="12" t="s">
+      <c r="F23" s="5"/>
+      <c r="G23" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="H23" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B24" s="12"/>
-      <c r="C24" s="10">
+      <c r="B24" s="8"/>
+      <c r="C24" s="5">
         <v>13511112222</v>
       </c>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10" t="s">
+      <c r="D24" s="5"/>
+      <c r="E24" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="F24" s="10"/>
+      <c r="F24" s="5"/>
       <c r="G24" t="s">
         <v>49</v>
       </c>
@@ -1174,77 +1697,77 @@
         <v>50</v>
       </c>
       <c r="I24" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" s="8"/>
+      <c r="C25" s="5">
+        <v>13211112222</v>
+      </c>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F25" s="5"/>
+      <c r="G25" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
-      <c r="A25" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="B25" s="12"/>
-      <c r="C25" s="10">
-        <v>13211112222</v>
-      </c>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="F25" s="10"/>
-      <c r="G25" t="s">
-        <v>48</v>
-      </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="I25" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="26" spans="1:15">
-      <c r="A26" s="12" t="s">
+    <row r="26" spans="1:10">
+      <c r="A26" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B26" s="12"/>
-      <c r="C26" s="10">
+      <c r="B26" s="8"/>
+      <c r="C26" s="5">
         <v>13211113333</v>
       </c>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10" t="s">
+      <c r="D26" s="5"/>
+      <c r="E26" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="F26" s="10"/>
-      <c r="G26" s="7" t="s">
-        <v>45</v>
+      <c r="F26" s="5"/>
+      <c r="G26" s="9" t="s">
+        <v>53</v>
       </c>
       <c r="H26" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="I26" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="J26" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="28" spans="1:15">
-      <c r="C28" s="11">
+    <row r="28" spans="3:5">
+      <c r="C28" s="7">
         <v>15224637863</v>
       </c>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
-    </row>
-    <row r="29" spans="1:15">
-      <c r="C29" s="11"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="7" t="s">
-        <v>56</v>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+    </row>
+    <row r="29" spans="3:10">
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="9" t="s">
+        <v>55</v>
       </c>
       <c r="H29" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="I29" t="s">
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="J29" t="s">
         <v>44</v>
@@ -1252,6 +1775,11 @@
     </row>
   </sheetData>
   <mergeCells count="62">
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="K3:O3"/>
+    <mergeCell ref="P3:Q3"/>
     <mergeCell ref="R3:S3"/>
     <mergeCell ref="A4:D4"/>
     <mergeCell ref="F4:G4"/>
@@ -1260,22 +1788,17 @@
     <mergeCell ref="M4:O4"/>
     <mergeCell ref="P4:Q4"/>
     <mergeCell ref="R4:S4"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="K3:O3"/>
-    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="M5:O5"/>
+    <mergeCell ref="P5:Q5"/>
     <mergeCell ref="R5:S5"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="H6:J6"/>
     <mergeCell ref="K6:O6"/>
     <mergeCell ref="P6:Q6"/>
     <mergeCell ref="R6:S6"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="M5:O5"/>
-    <mergeCell ref="P5:Q5"/>
     <mergeCell ref="F7:G7"/>
     <mergeCell ref="H7:J7"/>
     <mergeCell ref="K7:L7"/>
@@ -1298,26 +1821,26 @@
     <mergeCell ref="A22:B22"/>
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="E22:F22"/>
-    <mergeCell ref="A1:O2"/>
-    <mergeCell ref="P1:S2"/>
-    <mergeCell ref="A17:F18"/>
-    <mergeCell ref="C28:E29"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
     <mergeCell ref="A25:B25"/>
     <mergeCell ref="C25:D25"/>
     <mergeCell ref="E25:F25"/>
     <mergeCell ref="A26:B26"/>
     <mergeCell ref="C26:D26"/>
     <mergeCell ref="E26:F26"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="A1:O2"/>
+    <mergeCell ref="P1:S2"/>
+    <mergeCell ref="A17:F18"/>
+    <mergeCell ref="C28:E29"/>
   </mergeCells>
-  <phoneticPr fontId="6" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/需求分析/接口文档/客户/权限角色接口.xlsx
+++ b/需求分析/接口文档/客户/权限角色接口.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22290" windowHeight="9135"/>
+    <workbookView windowWidth="27120" windowHeight="10350"/>
   </bookViews>
   <sheets>
     <sheet name="权限角色" sheetId="1" r:id="rId1"/>
@@ -240,13 +240,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="14"/>
       <color rgb="FF5C5C5C"/>
       <name val="黑体"/>
@@ -254,37 +247,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -299,13 +285,59 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -313,81 +345,48 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="34">
@@ -435,25 +434,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799951170384838"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -465,19 +548,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799951170384838"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -489,97 +578,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -596,6 +595,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -610,26 +618,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -652,8 +640,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -661,8 +649,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -696,6 +684,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -704,10 +703,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -716,103 +715,103 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -821,28 +820,28 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -874,10 +873,10 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="46" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="40" applyAlignment="1">
@@ -1286,7 +1285,7 @@
   <dimension ref="A1:S29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="Q32" sqref="Q32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/需求分析/接口文档/客户/权限角色接口.xlsx
+++ b/需求分析/接口文档/客户/权限角色接口.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27120" windowHeight="10350"/>
+    <workbookView windowWidth="28080" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="权限角色" sheetId="1" r:id="rId1"/>
@@ -206,10 +206,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -247,7 +247,58 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -262,6 +313,22 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -269,21 +336,39 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -292,92 +377,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -428,37 +428,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799951170384838"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -470,12 +554,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -488,103 +566,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799951170384838"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -598,26 +598,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -637,35 +637,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -687,6 +669,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -695,6 +686,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -703,10 +703,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -715,103 +715,103 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -820,28 +820,28 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1285,7 +1285,7 @@
   <dimension ref="A1:S29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q32" sqref="Q32"/>
+      <selection activeCell="C21" sqref="C21:D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
